--- a/data/trans_bre/CoPsoQ_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-3.758805150186473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.454386626747152</v>
+        <v>-6.454386626747151</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.02346690084988336</v>
@@ -627,7 +627,7 @@
         <v>-0.1105594551779528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.4105538357707993</v>
+        <v>-0.4105538357707992</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.67269820519454</v>
+        <v>-13.2289075941399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.80880989192983</v>
+        <v>-16.49707692657339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-26.77294728242244</v>
+        <v>-27.91395330661398</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3116909696677712</v>
+        <v>-0.314662493875229</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4028941970799728</v>
+        <v>-0.4143325854891529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9229843983678653</v>
+        <v>-0.9309250297186032</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.8292671532038</v>
+        <v>16.15080442421773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.696211720859043</v>
+        <v>8.517409838717803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.047449812918248</v>
+        <v>5.744226301049911</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4683974227788474</v>
+        <v>0.5430604961288168</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3202807362401734</v>
+        <v>0.3256154668300693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.127179313607738</v>
+        <v>1.229205640764548</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-1.058066384686215</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-8.359785339100078</v>
+        <v>-8.359785339100084</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07078989361240588</v>
@@ -709,7 +709,7 @@
         <v>-0.04762976682919556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1868396784767854</v>
+        <v>-0.1868396784767855</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.624234611699279</v>
+        <v>-9.085508788374884</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.17574054631392</v>
+        <v>-10.87592561657014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-29.42689171246603</v>
+        <v>-31.68811406805197</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3425907536194693</v>
+        <v>-0.3614040106647302</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3971317726393866</v>
+        <v>-0.42484866298648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5265569953281605</v>
+        <v>-0.538677253619621</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.53603053326496</v>
+        <v>11.44111569830008</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.16618295555784</v>
+        <v>9.053539325959461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.97217279087975</v>
+        <v>12.70772220217916</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7103192350081682</v>
+        <v>0.7189780024862461</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5255469857589865</v>
+        <v>0.5277104639163097</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4599733101078693</v>
+        <v>0.4169550985786138</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-3.07513576280059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.08763238339039026</v>
+        <v>-0.08763238339039581</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.3153876952281228</v>
@@ -791,7 +791,7 @@
         <v>-0.1046017164724731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.003432744847159842</v>
+        <v>-0.003432744847160059</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.896637879066091</v>
+        <v>-4.853683192477886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.70587168886741</v>
+        <v>-14.84127511811945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-23.04309452559639</v>
+        <v>-21.80094197501655</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2493767525082435</v>
+        <v>-0.2076663857967192</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4455812797228095</v>
+        <v>-0.4524406246897978</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6272192933851278</v>
+        <v>-0.5902979104316424</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.52086342901455</v>
+        <v>19.62766285459514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.27127896252301</v>
+        <v>10.4228906447406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.52914547673356</v>
+        <v>20.89183793199479</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.09552890765307</v>
+        <v>1.06445307155166</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3963769219006478</v>
+        <v>0.4569029137611532</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.449475236519781</v>
+        <v>1.63356126610584</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>8.072763968193025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.968714454730879</v>
+        <v>6.968714454730901</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2318565369649044</v>
@@ -873,7 +873,7 @@
         <v>0.2580675920971632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2008133740434401</v>
+        <v>0.2008133740434408</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.69182586221348</v>
+        <v>-14.76515678665894</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.459734723775322</v>
+        <v>-5.66754693050193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-16.03249543337517</v>
+        <v>-17.47483172165528</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5868114416526429</v>
+        <v>-0.6001091665448387</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1888437389763901</v>
+        <v>-0.1637118067590335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3332705777059554</v>
+        <v>-0.4011991880157678</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.640499856485283</v>
+        <v>5.000588118726453</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.54322788451503</v>
+        <v>21.98412130131958</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29.00653836134525</v>
+        <v>30.95464727544054</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4749818131706572</v>
+        <v>0.4270609092895534</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8697225018039254</v>
+        <v>0.8968445614638123</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.309875598751327</v>
+        <v>1.323144077359846</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>1.207207974631747</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15.35275915035532</v>
+        <v>15.35275915035533</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.423491257125399</v>
@@ -955,7 +955,7 @@
         <v>0.07889429268122677</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6529536514863272</v>
+        <v>0.6529536514863279</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-37.76644252938357</v>
+        <v>-37.89917553552375</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.21267785658736</v>
+        <v>-10.33878673038767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.742010684651008</v>
+        <v>-8.34091331028587</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.686569613654988</v>
+        <v>-0.6905424067277657</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5073923326475701</v>
+        <v>-0.5194421336106448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2825036198448072</v>
+        <v>-0.247890536073713</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.957507713105503</v>
+        <v>-3.378177289551987</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.89545426801454</v>
+        <v>13.88993563580932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.79089242223773</v>
+        <v>35.76166466192669</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.02438671059796664</v>
+        <v>-0.06079220209825077</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.29343376702209</v>
+        <v>1.346643184358887</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.838128392295502</v>
+        <v>3.257545591576319</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.478094710227162</v>
+        <v>-2.93819904336031</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-18.62757169352419</v>
+        <v>-18.44800542334232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-36.03863799505878</v>
+        <v>-37.04759905887043</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.105066831362468</v>
+        <v>-0.1105262705591916</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7693181133402951</v>
+        <v>-0.7568146526854816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7893627680472082</v>
+        <v>-0.7892993570878267</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.91750676024103</v>
+        <v>26.99829421799601</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8821285754218653</v>
+        <v>1.846416849322449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.44826880413375</v>
+        <v>7.927100059266973</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.74793292602591</v>
+        <v>1.80319996391573</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1441003624706712</v>
+        <v>0.1708493511703824</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4502483067565186</v>
+        <v>0.4015962269552126</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>-1.154846002984528</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.179102671203546</v>
+        <v>-6.179102671203523</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.2038736269664739</v>
@@ -1119,7 +1119,7 @@
         <v>-0.03846946712151216</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.1517235905418667</v>
+        <v>-0.1517235905418662</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.151592561569456</v>
+        <v>-4.634703538018206</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.645368555385387</v>
+        <v>-8.582563192195719</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-20.98660121135953</v>
+        <v>-19.68346249048491</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1495313460284877</v>
+        <v>-0.1571375403396057</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2556648998273586</v>
+        <v>-0.2541059593827445</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4276610686078655</v>
+        <v>-0.4067269330377922</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.28882262789969</v>
+        <v>13.63050896637267</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.385252001980733</v>
+        <v>5.851000766621535</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.887240922797067</v>
+        <v>9.07663632213441</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.6607822721607503</v>
+        <v>0.6469739108158606</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2449523837317003</v>
+        <v>0.2252521330879831</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2671797069966628</v>
+        <v>0.2865858897330804</v>
       </c>
     </row>
     <row r="25">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-5.035084444030714</v>
+        <v>-5.492777235401201</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.376213949178574</v>
+        <v>1.165911772048325</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-15.57551002263184</v>
+        <v>-14.70468490674211</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3307150104614099</v>
+        <v>-0.3470787362594205</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1462363723739518</v>
+        <v>0.0717312285645733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4584984510409109</v>
+        <v>-0.4268363771961609</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.059148845089772</v>
+        <v>6.638467516996103</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.87663046663793</v>
+        <v>11.79130362136395</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.83772353429881</v>
+        <v>7.337997582788327</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6887863902413611</v>
+        <v>0.6440128084483446</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.517058121881474</v>
+        <v>2.228835982604836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.307575412929207</v>
+        <v>0.3274791585616675</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>0.5866718116070757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.791178039239584</v>
+        <v>-2.791178039239595</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.04743113211644422</v>
@@ -1283,7 +1283,7 @@
         <v>0.02615018672846372</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>-0.08538200796672671</v>
+        <v>-0.08538200796672704</v>
       </c>
     </row>
     <row r="29">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.666244653830514</v>
+        <v>-2.610362693168111</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.903244985734273</v>
+        <v>-2.722900070936374</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.633445857815909</v>
+        <v>-9.922755122359867</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.1106091249681924</v>
+        <v>-0.1080472432253105</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1197775862730359</v>
+        <v>-0.1147954721535139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2571017038856994</v>
+        <v>-0.267176556590878</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.824917833565541</v>
+        <v>4.455446203866478</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.286133320008564</v>
+        <v>4.214181192366294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.898316630022146</v>
+        <v>3.711613296989409</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.2333998858409406</v>
+        <v>0.2090568434267266</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.209676175417286</v>
+        <v>0.1977592764569945</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1357947543625175</v>
+        <v>0.1304781820171173</v>
       </c>
     </row>
     <row r="31">
